--- a/SphericalTrig4Nav.xlsx
+++ b/SphericalTrig4Nav.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0444567-C89A-4B81-BCD3-87E168559451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6147319-E01C-419E-91A6-F77A65AB81A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>FROM:</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>_Z</t>
+  </si>
+  <si>
+    <t>https://www.siranah.de/html/sail042e.htm</t>
   </si>
 </sst>
 </file>
@@ -238,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +290,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -331,7 +340,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
@@ -341,6 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comment" xfId="9" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -800,6 +810,50 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>326823</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7528ADD8-582F-3B1A-9AE9-032478281DBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1200150"/>
+          <a:ext cx="7649643" cy="3600953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1095,7 +1149,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1387,37 +1441,39 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="C7:M12"/>
+  <dimension ref="C2:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>-20</v>
-      </c>
-      <c r="E7">
         <v>49</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="9">
         <v>49</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="9">
         <v>49</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="9">
         <v>49</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="9">
         <v>68</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="9">
         <v>-20</v>
       </c>
     </row>
@@ -1426,27 +1482,23 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>22.05</v>
-      </c>
-      <c r="E8">
-        <f>45+11/60</f>
+        <v>12.1</v>
+      </c>
+      <c r="I8" s="9">
+        <v>12.1</v>
+      </c>
+      <c r="J8" s="9">
         <v>45.18333333333333</v>
       </c>
-      <c r="I8">
-        <v>12.1</v>
-      </c>
-      <c r="J8">
-        <v>45.18333333333333</v>
-      </c>
-      <c r="K8">
+      <c r="K8" s="9">
         <f>74+16/60</f>
         <v>74.266666666666666</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="9">
         <f>21+8/60</f>
         <v>21.133333333333333</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="9">
         <f>22+3/60</f>
         <v>22.05</v>
       </c>
@@ -1456,24 +1508,21 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>63</v>
-      </c>
-      <c r="E9">
+        <v>58</v>
+      </c>
+      <c r="I9" s="9">
+        <v>58</v>
+      </c>
+      <c r="J9" s="9">
         <v>259</v>
       </c>
-      <c r="I9">
-        <v>58</v>
-      </c>
-      <c r="J9">
-        <v>259</v>
-      </c>
-      <c r="K9">
+      <c r="K9" s="9">
         <v>347</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="9">
         <v>329</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="9">
         <v>63</v>
       </c>
     </row>
@@ -1487,7 +1536,7 @@
 _xlpm.t,_t*PI()/180,
 _xlpm.d,_d*PI()/180,
 ASIN(COS(_xlpm.L)*COS(_xlpm.d)*COS(_xlpm.t)+SIN(_xlpm.L)*SIN(_xlpm.d))*180/PI())</f>
-        <v>15.486303643338168</v>
+        <v>29.87672961514842</v>
       </c>
       <c r="I11">
         <v>29.87672961514842</v>
@@ -1512,7 +1561,7 @@
 _xlpm.t,_t*PI()/180,
 _xlpm.h,_h*PI()/180,
 ASIN(COS(_xlpm.d)*SIN(_xlpm.t)/COS(_xlpm.h))*180/PI())</f>
-        <v>58.975538982785935</v>
+        <v>72.999137827422672</v>
       </c>
       <c r="I12">
         <v>72.999137827422672</v>
@@ -1525,6 +1574,22 @@
       </c>
       <c r="L12">
         <v>-38.394152431161189</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>_xlfn.LET(
+_xlpm.t,_t*PI()/180,
+_xlpm.L,_L*PI()/180,
+_xlpm.d,_d*PI()/180,
+180/PI()*ATAN2(-SIN(_xlpm.t),COS(_xlpm.L)*TAN(_xlpm.d)-SIN(_xlpm.L)*COS(_xlpm.t)))</f>
+        <v>-162.99913782742269</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>C14+270</f>
+        <v>107.00086217257731</v>
       </c>
     </row>
   </sheetData>

--- a/SphericalTrig4Nav.xlsx
+++ b/SphericalTrig4Nav.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6147319-E01C-419E-91A6-F77A65AB81A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658CC027-883F-4CD0-AB08-7061B6FD1425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>FROM:</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>https://www.siranah.de/html/sail042e.htm</t>
+  </si>
+  <si>
+    <t>I need to understand the definition of azimuth better.</t>
   </si>
 </sst>
 </file>
@@ -673,7 +676,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1" y="0"/>
-          <a:ext cx="2200272" cy="484632"/>
+          <a:ext cx="2198367" cy="492252"/>
           <a:chOff x="3162303" y="274265"/>
           <a:chExt cx="2198368" cy="489383"/>
         </a:xfrm>
@@ -1149,7 +1152,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1441,10 +1444,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="C2:M16"/>
+  <dimension ref="C2:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1590,6 +1593,11 @@
       <c r="C16">
         <f>C14+270</f>
         <v>107.00086217257731</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/SphericalTrig4Nav.xlsx
+++ b/SphericalTrig4Nav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658CC027-883F-4CD0-AB08-7061B6FD1425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457B4EA2-60B9-4F37-A0B6-91B910DC5E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,21 @@
     <sheet name="Lists" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_Alt">Report!$D$23</definedName>
     <definedName name="_d">Report!$D$8</definedName>
     <definedName name="_h">Report!$D$11</definedName>
     <definedName name="_L">Report!$D$7</definedName>
+    <definedName name="_PX">Report!$D$20</definedName>
+    <definedName name="_PZ">Report!$D$21</definedName>
     <definedName name="_t">Report!$D$9</definedName>
     <definedName name="_Z">Report!$D$12</definedName>
+    <definedName name="_ZPA">Report!$D$24</definedName>
+    <definedName name="_ZX">Report!$D$22</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -69,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>FROM:</t>
   </si>
@@ -153,6 +158,24 @@
   </si>
   <si>
     <t>I need to understand the definition of azimuth better.</t>
+  </si>
+  <si>
+    <t>_PX</t>
+  </si>
+  <si>
+    <t>_PZ</t>
+  </si>
+  <si>
+    <t>_ZX</t>
+  </si>
+  <si>
+    <t>_Alt</t>
+  </si>
+  <si>
+    <t>_ZPA</t>
+  </si>
+  <si>
+    <t>https://astronavigationdemystified.com/calculating-azimuth-and-altitude-at-the-assumed-position-by-spherical-trigonometry/</t>
   </si>
 </sst>
 </file>
@@ -676,7 +699,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1" y="0"/>
-          <a:ext cx="2198367" cy="492252"/>
+          <a:ext cx="2200272" cy="484632"/>
           <a:chOff x="3162303" y="274265"/>
           <a:chExt cx="2198368" cy="489383"/>
         </a:xfrm>
@@ -932,8 +955,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3158491" y="270455"/>
-          <a:ext cx="2205990" cy="464875"/>
+          <a:off x="3166111" y="262835"/>
+          <a:ext cx="2200275" cy="455350"/>
           <a:chOff x="3162301" y="274265"/>
           <a:chExt cx="2198370" cy="459814"/>
         </a:xfrm>
@@ -1152,7 +1175,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1444,25 +1467,30 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="C2:M18"/>
+  <dimension ref="C2:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>-20</v>
       </c>
       <c r="I7" s="9">
         <v>49</v>
@@ -1479,13 +1507,16 @@
       <c r="M7" s="9">
         <v>-20</v>
       </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="D8">
-        <v>12.1</v>
+        <v>22.05</v>
       </c>
       <c r="I8" s="9">
         <v>12.1</v>
@@ -1505,13 +1536,16 @@
         <f>22+3/60</f>
         <v>22.05</v>
       </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>28.091666666666665</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I9" s="9">
         <v>58</v>
@@ -1528,8 +1562,11 @@
       <c r="M9" s="9">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>24</v>
       </c>
@@ -1539,7 +1576,11 @@
 _xlpm.t,_t*PI()/180,
 _xlpm.d,_d*PI()/180,
 ASIN(COS(_xlpm.L)*COS(_xlpm.d)*COS(_xlpm.t)+SIN(_xlpm.L)*SIN(_xlpm.d))*180/PI())</f>
-        <v>29.87672961514842</v>
+        <v>15.486303643338168</v>
+      </c>
+      <c r="E11" t="str">
+        <f>INT(_h)&amp;"° "&amp;TEXT(ROUND(MOD(_h,1)*60,1),"0.0")</f>
+        <v>15° 29.2</v>
       </c>
       <c r="I11">
         <v>29.87672961514842</v>
@@ -1553,8 +1594,12 @@
       <c r="L11">
         <v>39.330371718485488</v>
       </c>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <f>32+58/60</f>
+        <v>32.966666666666669</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -1564,7 +1609,7 @@
 _xlpm.t,_t*PI()/180,
 _xlpm.h,_h*PI()/180,
 ASIN(COS(_xlpm.d)*SIN(_xlpm.t)/COS(_xlpm.h))*180/PI())</f>
-        <v>72.999137827422672</v>
+        <v>58.975538982785935</v>
       </c>
       <c r="I12">
         <v>72.999137827422672</v>
@@ -1578,26 +1623,100 @@
       <c r="L12">
         <v>-38.394152431161189</v>
       </c>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14">
         <f>_xlfn.LET(
 _xlpm.t,_t*PI()/180,
 _xlpm.L,_L*PI()/180,
 _xlpm.d,_d*PI()/180,
 180/PI()*ATAN2(-SIN(_xlpm.t),COS(_xlpm.L)*TAN(_xlpm.d)-SIN(_xlpm.L)*COS(_xlpm.t)))</f>
-        <v>-162.99913782742269</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <f>C14+270</f>
-        <v>107.00086217257731</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+        <v>148.97553898278593</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>180+C14</f>
+        <v>328.97553898278591</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <f>90-_d</f>
+        <v>67.95</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <f>90-_L</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <f>90-_h</f>
+        <v>74.513696356661825</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <f>90-_ZX</f>
+        <v>15.486303643338175</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <f>_t</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f>(COS(_PX*PI()/180)-COS(_ZX*PI()/180)*COS(_PZ*PI()/180))/(SIN(_ZX*PI()/180)*SIN(_PZ*PI()/180))</f>
+        <v>0.51540397435955743</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f>ACOS(C26)*180/PI()</f>
+        <v>58.975538982785935</v>
+      </c>
+      <c r="D27" t="str">
+        <f>INT(C27)&amp;"° "&amp;TEXT(ROUND(MOD(C27,1)*60,1),"0.0")</f>
+        <v>58° 58.5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f>180-C27</f>
+        <v>121.02446101721407</v>
+      </c>
+      <c r="D28" t="str">
+        <f>INT(C28)&amp;"° "&amp;TEXT(ROUND(MOD(C28,1)*60,1),"0.0")</f>
+        <v>121° 1.5</v>
       </c>
     </row>
   </sheetData>
@@ -1645,7 +1764,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>22-May-2025</v>
+        <v>23-May-2025</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -1941,7 +2060,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>22-May-2025</v>
+        <v>23-May-2025</v>
       </c>
       <c r="C3" s="2"/>
     </row>

--- a/SphericalTrig4Nav.xlsx
+++ b/SphericalTrig4Nav.xlsx
@@ -8,31 +8,47 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457B4EA2-60B9-4F37-A0B6-91B910DC5E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772FD381-A988-494C-9B81-427C1FB54056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-21160" yWindow="0" windowWidth="21230" windowHeight="19590" firstSheet="1" activeTab="3" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId1"/>
-    <sheet name="Formats" sheetId="2" r:id="rId2"/>
-    <sheet name="Lists" sheetId="3" r:id="rId3"/>
+    <sheet name="Formula208" sheetId="1" r:id="rId1"/>
+    <sheet name="Formula229" sheetId="4" r:id="rId2"/>
+    <sheet name="Formula229 (2)" sheetId="6" r:id="rId3"/>
+    <sheet name="Formula229 (3)" sheetId="7" r:id="rId4"/>
+    <sheet name="Formats" sheetId="2" r:id="rId5"/>
+    <sheet name="Lists" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_Alt">Report!$D$23</definedName>
-    <definedName name="_d">Report!$D$8</definedName>
-    <definedName name="_h">Report!$D$11</definedName>
-    <definedName name="_L">Report!$D$7</definedName>
-    <definedName name="_PX">Report!$D$20</definedName>
-    <definedName name="_PZ">Report!$D$21</definedName>
-    <definedName name="_t">Report!$D$9</definedName>
-    <definedName name="_Z">Report!$D$12</definedName>
-    <definedName name="_ZPA">Report!$D$24</definedName>
-    <definedName name="_ZX">Report!$D$22</definedName>
+    <definedName name="_Alt">Formula208!$D$23</definedName>
+    <definedName name="_d" localSheetId="1">Formula229!$C$6</definedName>
+    <definedName name="_d" localSheetId="2">'Formula229 (2)'!$C$6</definedName>
+    <definedName name="_d" localSheetId="3">'Formula229 (3)'!$C$6</definedName>
+    <definedName name="_d">Formula208!$D$8</definedName>
+    <definedName name="_fHM">_xlfn.LAMBDA(_xlpm.a, INT(_xlpm.a) &amp; "° " &amp; FIXED(MOD(_xlpm.a, 1) * 60, 1) &amp; "'")</definedName>
+    <definedName name="_h">Formula208!$D$11</definedName>
+    <definedName name="_HC" comment="Computed altitude_x000a_" localSheetId="1">Formula229!$D$11</definedName>
+    <definedName name="_HC" comment="Computed altitude_x000a_" localSheetId="2">'Formula229 (2)'!$D$11</definedName>
+    <definedName name="_HC" comment="Computed altitude_x000a_" localSheetId="3">'Formula229 (3)'!$D$11</definedName>
+    <definedName name="_L" localSheetId="1">Formula229!$C$5</definedName>
+    <definedName name="_L" localSheetId="2">'Formula229 (2)'!$C$5</definedName>
+    <definedName name="_L" localSheetId="3">'Formula229 (3)'!$C$5</definedName>
+    <definedName name="_L">Formula208!$D$7</definedName>
+    <definedName name="_PX">Formula208!$D$20</definedName>
+    <definedName name="_PZ">Formula208!$D$21</definedName>
+    <definedName name="_t" localSheetId="1">Formula229!$C$7</definedName>
+    <definedName name="_t" localSheetId="2">'Formula229 (2)'!$C$7</definedName>
+    <definedName name="_t" localSheetId="3">'Formula229 (3)'!$C$7</definedName>
+    <definedName name="_t">Formula208!$D$9</definedName>
+    <definedName name="_Z">Formula208!$D$12</definedName>
+    <definedName name="_ZPA">Formula208!$D$24</definedName>
+    <definedName name="_ZX">Formula208!$D$22</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +68,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -74,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="67">
   <si>
     <t>FROM:</t>
   </si>
@@ -176,13 +192,112 @@
   </si>
   <si>
     <t>https://astronavigationdemystified.com/calculating-azimuth-and-altitude-at-the-assumed-position-by-spherical-trigonometry/</t>
+  </si>
+  <si>
+    <t>_Hc</t>
+  </si>
+  <si>
+    <t>28° 5.4'</t>
+  </si>
+  <si>
+    <t>75° 48.6'</t>
+  </si>
+  <si>
+    <t>37° 38.6'</t>
+  </si>
+  <si>
+    <t>218° 2.4'</t>
+  </si>
+  <si>
+    <t>72° 21.5'</t>
+  </si>
+  <si>
+    <t>264° 21.1'</t>
+  </si>
+  <si>
+    <t>284° 11.4'</t>
+  </si>
+  <si>
+    <t>141° 57.6'</t>
+  </si>
+  <si>
+    <t>95° 38.9'</t>
+  </si>
+  <si>
+    <t>Arcturus</t>
+  </si>
+  <si>
+    <t>Antares</t>
+  </si>
+  <si>
+    <t>Rasalhague</t>
+  </si>
+  <si>
+    <t>Regulus</t>
+  </si>
+  <si>
+    <t>Deneb</t>
+  </si>
+  <si>
+    <t>Kochab</t>
+  </si>
+  <si>
+    <t>29° 52.6'</t>
+  </si>
+  <si>
+    <t>252° 59.9'</t>
+  </si>
+  <si>
+    <t>107° 0.1'</t>
+  </si>
+  <si>
+    <t>26° 33.6'</t>
+  </si>
+  <si>
+    <t>50° 40.3'</t>
+  </si>
+  <si>
+    <t>309° 19.7'</t>
+  </si>
+  <si>
+    <t>64° 7.7'</t>
+  </si>
+  <si>
+    <t>8° 2.1'</t>
+  </si>
+  <si>
+    <t>351° 57.9'</t>
+  </si>
+  <si>
+    <t>pg 55</t>
+  </si>
+  <si>
+    <t>HO 208</t>
+  </si>
+  <si>
+    <t>Pub 229</t>
+  </si>
+  <si>
+    <t>291° 57.4'</t>
+  </si>
+  <si>
+    <t>68° 2.6'</t>
+  </si>
+  <si>
+    <t>pg64</t>
+  </si>
+  <si>
+    <t>12° 40.0'</t>
+  </si>
+  <si>
+    <t>111° 57'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -266,8 +381,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,6 +444,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -366,7 +500,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
@@ -377,6 +511,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comment" xfId="9" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -699,7 +841,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1" y="0"/>
-          <a:ext cx="2200272" cy="484632"/>
+          <a:ext cx="2201542" cy="479552"/>
           <a:chOff x="3162303" y="274265"/>
           <a:chExt cx="2198368" cy="489383"/>
         </a:xfrm>
@@ -887,6 +1029,417 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>34554</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A112C50C-25DA-2C6C-7F62-1F845FA706A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="330200"/>
+          <a:ext cx="10993384" cy="3581900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>297447</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>72991</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC08C245-59EC-9573-C6D8-61726901A0B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="584200" y="3531870"/>
+          <a:ext cx="11009897" cy="4295741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>569369</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>105562</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5685DC6-F112-D7A7-0C3A-FCED3532284C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5003800" y="2476500"/>
+          <a:ext cx="7478169" cy="1086002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>34554</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6DD0711-54A8-49A4-B155-D2F0D4F33675}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11303000" y="330200"/>
+          <a:ext cx="11007354" cy="3581900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>301257</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>72991</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E1CD8D-D5C0-4E58-976A-140A5F5CB47D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581660" y="3533140"/>
+          <a:ext cx="11018787" cy="4299551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>569369</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>110642</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F8C34B-73C6-4A21-9065-565EAEBFADC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5003800" y="2476500"/>
+          <a:ext cx="7478169" cy="1096162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>34554</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90BBA8A7-86E0-4169-8428-BA43DD9F0B75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11303000" y="330200"/>
+          <a:ext cx="11007354" cy="3581900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>301257</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>72991</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E83E78E-9F7D-4C6B-B402-AFF1610C6A27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581660" y="3533140"/>
+          <a:ext cx="11022597" cy="4299551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>569369</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>110642</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB37C871-440D-4EA7-B504-C97BDB0CC181}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5003800" y="2476500"/>
+          <a:ext cx="7478169" cy="1101242"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -955,8 +1508,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3166111" y="262835"/>
-          <a:ext cx="2200275" cy="455350"/>
+          <a:off x="3171191" y="257755"/>
+          <a:ext cx="2196465" cy="449000"/>
           <a:chOff x="3162301" y="274265"/>
           <a:chExt cx="2198370" cy="459814"/>
         </a:xfrm>
@@ -1462,6 +2015,50 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="1188" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="974" row="9">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{C610B3D2-9FDC-4B5F-B02D-6D2CE6D75A26}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200003696" version="1.3.0.0" store="WA200003696" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="projectV0_1-56c6e055-265e-4713-816e-a646dbb708de" value="{&quot;kind&quot;:&quot;AFEJSONBlobNode&quot;,&quot;id&quot;:&quot;{CE3DB59B-49FD-4195-9271-1E20C81680B6}&quot;}"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{BD814D2B-B43D-4A0E-A2E2-A69725B415D9}">
+  <we:reference id="wa200006385" version="1.0.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200006385" version="1.0.0.0" store="WA200006385" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB114D2F-F620-446A-92CE-0CB3C9FD0F74}">
   <sheetPr codeName="Sheet1">
@@ -1469,8 +2066,8 @@
   </sheetPr>
   <dimension ref="C2:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1721,12 +2318,833 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E99B084-70EE-4F78-B076-1D78244F5ECF}">
+  <dimension ref="B2:M14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>49</v>
+      </c>
+      <c r="J5">
+        <v>49</v>
+      </c>
+      <c r="K5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>-26.378333333333334</v>
+      </c>
+      <c r="F6">
+        <v>19.315000000000001</v>
+      </c>
+      <c r="G6">
+        <v>-26.378333333333334</v>
+      </c>
+      <c r="H6">
+        <v>12.581666666666667</v>
+      </c>
+      <c r="I6">
+        <f>12+6/60</f>
+        <v>12.1</v>
+      </c>
+      <c r="J6">
+        <f>45+11/60</f>
+        <v>45.18333333333333</v>
+      </c>
+      <c r="K6">
+        <f>74+16/60</f>
+        <v>74.266666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="F7">
+        <v>65</v>
+      </c>
+      <c r="G7">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <v>58</v>
+      </c>
+      <c r="J7">
+        <v>259</v>
+      </c>
+      <c r="K7">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <f>_xlfn.LET(_xlpm.L, PI() / 180 * _L, _xlpm.d, PI() / 180 * _d, _xlpm.t, PI() / 180 * _t, ASIN(SIN(_xlpm.L) * SIN(_xlpm.d) + COS(_xlpm.L) * COS(_xlpm.d) * COS(_xlpm.t)) * 180 / PI())</f>
+        <v>37.644050023822807</v>
+      </c>
+      <c r="D11" t="str" cm="1">
+        <f t="array" ref="D11">_fHM(C11)</f>
+        <v>37° 38.6'</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <f>_xlfn.LET(
+_xlpm.d,PI()/180*_d,
+_xlpm.L,PI()/180*_L,
+_xlpm.t,PI()/180*_t,
+_xlpm._z,MOD(DEGREES(ATAN2(COS(_xlpm.d)*SIN(_xlpm.t),(COS(_xlpm.L)*SIN(_xlpm.d)-SIN(_xlpm.L)*COS(_xlpm.d)*COS(_xlpm.t)))),360),
+MOD(_xlpm._z-90,360)
+)</f>
+        <v>218.0402181944944</v>
+      </c>
+      <c r="D12" t="str" cm="1">
+        <f t="array" ref="D12">_fHM(ABS(C12))</f>
+        <v>218° 2.4'</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>360-C12</f>
+        <v>141.9597818055056</v>
+      </c>
+      <c r="D13" t="str" cm="1">
+        <f t="array" ref="D13">_fHM(ABS(C13))</f>
+        <v>141° 57.6'</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>_xlfn.LET(
+_xlpm.d,PI()/180*_d,
+_xlpm.L,PI()/180*_L,
+_xlpm.t,PI()/180*_t,
+_xlpm._z,MOD(DEGREES(ATAN2(COS(_xlpm.d)*SIN(_xlpm.t),(COS(_xlpm.L)*SIN(_xlpm.d)-SIN(_xlpm.L)*COS(_xlpm.d)*COS(_xlpm.t)))),360),
+MOD(_xlpm._z,360)
+)</f>
+        <v>308.0402181944944</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916FFC01-0787-4116-93FD-519DFE4BC403}">
+  <dimension ref="B2:M14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>49</v>
+      </c>
+      <c r="J5">
+        <v>49</v>
+      </c>
+      <c r="K5">
+        <v>49</v>
+      </c>
+      <c r="L5" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>-26.378333333333334</v>
+      </c>
+      <c r="F6">
+        <v>19.315000000000001</v>
+      </c>
+      <c r="G6">
+        <v>-26.378333333333334</v>
+      </c>
+      <c r="H6">
+        <v>12.581666666666667</v>
+      </c>
+      <c r="I6">
+        <f>12+6/60</f>
+        <v>12.1</v>
+      </c>
+      <c r="J6">
+        <f>45+11/60</f>
+        <v>45.18333333333333</v>
+      </c>
+      <c r="K6">
+        <f>74+16/60</f>
+        <v>74.266666666666666</v>
+      </c>
+      <c r="L6" s="13">
+        <v>21.156666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="F7">
+        <v>65</v>
+      </c>
+      <c r="G7">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <v>58</v>
+      </c>
+      <c r="J7">
+        <v>259</v>
+      </c>
+      <c r="K7">
+        <v>347</v>
+      </c>
+      <c r="L7" s="13">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <f>_xlfn.LET(_xlpm.L, PI() / 180 * _L, _xlpm.d, PI() / 180 * _d, _xlpm.t, PI() / 180 * _t, ASIN(SIN(_xlpm.L) * SIN(_xlpm.d) + COS(_xlpm.L) * COS(_xlpm.d) * COS(_xlpm.t)) * 180 / PI())</f>
+        <v>37.644050023822807</v>
+      </c>
+      <c r="D11" t="str" cm="1">
+        <f t="array" ref="D11">_fHM(C11)</f>
+        <v>37° 38.6'</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <f>_xlfn.LET(
+_xlpm.d,PI()/180*_d,
+_xlpm.L,PI()/180*_L,
+_xlpm.t,PI()/180*_t,
+_xlpm._z,MOD(DEGREES(ATAN2(COS(_xlpm.d)*SIN(_xlpm.t),(COS(_xlpm.L)*SIN(_xlpm.d)-SIN(_xlpm.L)*COS(_xlpm.d)*COS(_xlpm.t)))),360),
+_xlpm._y,MOD(_xlpm._z-90,360),
+_xlpm._x,IF(SIGN(_xlpm.L)&lt;&gt;SIGN(_xlpm.d),180-_xlpm._y,_xlpm._y),360-_xlpm._x)</f>
+        <v>398.0402181944944</v>
+      </c>
+      <c r="D12" t="str" cm="1">
+        <f t="array" ref="D12">_fHM(ABS(C12))</f>
+        <v>398° 2.4'</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>360-C12</f>
+        <v>-38.0402181944944</v>
+      </c>
+      <c r="D13" t="str" cm="1">
+        <f t="array" ref="D13">_fHM(ABS(C13))</f>
+        <v>38° 2.4'</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>_xlfn.LET(
+_xlpm.d,PI()/180*_d,
+_xlpm.L,PI()/180*_L,
+_xlpm.t,PI()/180*_t,
+_xlpm._z,MOD(DEGREES(ATAN2(COS(_xlpm.d)*SIN(_xlpm.t),(COS(_xlpm.L)*SIN(_xlpm.d)-SIN(_xlpm.L)*COS(_xlpm.d)*COS(_xlpm.t)))),360),
+_xlpm._z
+)</f>
+        <v>308.0402181944944</v>
+      </c>
+      <c r="D14" t="str" cm="1">
+        <f t="array" ref="D14">_fHM(ABS(C14))</f>
+        <v>308° 2.4'</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC6FCC6-3E31-4FC6-8F07-E8D73C1C42B1}">
+  <dimension ref="B2:M12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>49</v>
+      </c>
+      <c r="J5">
+        <v>49</v>
+      </c>
+      <c r="K5">
+        <v>49</v>
+      </c>
+      <c r="L5" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>-26.378333333333334</v>
+      </c>
+      <c r="F6">
+        <v>19.315000000000001</v>
+      </c>
+      <c r="G6">
+        <v>-26.378333333333334</v>
+      </c>
+      <c r="H6">
+        <v>12.581666666666667</v>
+      </c>
+      <c r="I6">
+        <f>12+6/60</f>
+        <v>12.1</v>
+      </c>
+      <c r="J6">
+        <f>45+11/60</f>
+        <v>45.18333333333333</v>
+      </c>
+      <c r="K6">
+        <f>74+16/60</f>
+        <v>74.266666666666666</v>
+      </c>
+      <c r="L6" s="13">
+        <v>21.156666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="F7">
+        <v>65</v>
+      </c>
+      <c r="G7">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <v>58</v>
+      </c>
+      <c r="J7">
+        <v>259</v>
+      </c>
+      <c r="K7">
+        <v>347</v>
+      </c>
+      <c r="L7" s="13">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <f>_xlfn.LET(_xlpm.L, PI() / 180 * _L, _xlpm.d, PI() / 180 * _d, _xlpm.t, PI() / 180 * _t, ASIN(SIN(_xlpm.L) * SIN(_xlpm.d) + COS(_xlpm.L) * COS(_xlpm.d) * COS(_xlpm.t)) * 180 / PI())</f>
+        <v>37.644050023822807</v>
+      </c>
+      <c r="D11" t="str" cm="1">
+        <f t="array" ref="D11">_fHM(C11)</f>
+        <v>37° 38.6'</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <f>_xlfn.LET(
+_xlpm.d,PI()/180*_d,
+_xlpm.L,PI()/180*_L,
+_xlpm.t,PI()/180*_t,
+_xlpm.s,SIN(_xlpm.d),
+_xlpm.c,COS(_xlpm.d)*COS(_xlpm.t),
+_xlpm.x,(_xlpm.s*COS(_xlpm.L)-_xlpm.c*SIN(_xlpm.L))/COS(C11*PI()/180),
+_xlpm.a,DEGREES(ACOS(_xlpm.x)),
+_xlpm.a)</f>
+        <v>141.9597818055056</v>
+      </c>
+      <c r="D12" t="str" cm="1">
+        <f t="array" ref="D12">_fHM(ABS(C12))</f>
+        <v>141° 57.6'</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912E8867-A2D1-43A4-9ACC-7AB2760F7CD8}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -1764,7 +3182,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>23-May-2025</v>
+        <v>24-May-2025</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -2025,7 +3443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E13436D-CE0C-4639-B951-C1B98556791F}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -2060,11 +3478,23 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>23-May-2025</v>
+        <v>24-May-2025</v>
       </c>
       <c r="C3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHIAbwB3AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAYwBvAGwAdQBtAG4AUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFAAbwBzAGkAdABpAG8AbgBzACIAOgBbADMAXQAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAEQATQBZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgAkACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAcwB0AGEAdABlAG0AZQBuAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBsAG8AYwBhAGwAZQBOAGEAbQBlACIAOgAiAGUAbgAtAHUAcwAiAH0AfQA=</AFEJSONBlob>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE3DB59B-49FD-4195-9271-1E20C81680B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SphericalTrig4Nav.xlsx
+++ b/SphericalTrig4Nav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772FD381-A988-494C-9B81-427C1FB54056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AB7766-19B4-48A5-8172-FDDC9892F822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21160" yWindow="0" windowWidth="21230" windowHeight="19590" firstSheet="1" activeTab="3" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Formula208" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="4" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="67">
   <si>
     <t>FROM:</t>
   </si>
@@ -841,7 +841,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1" y="0"/>
-          <a:ext cx="2201542" cy="479552"/>
+          <a:ext cx="2200272" cy="484632"/>
           <a:chOff x="3162303" y="274265"/>
           <a:chExt cx="2198368" cy="489383"/>
         </a:xfrm>
@@ -1508,8 +1508,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3171191" y="257755"/>
-          <a:ext cx="2196465" cy="449000"/>
+          <a:off x="3166111" y="262835"/>
+          <a:ext cx="2200275" cy="455350"/>
           <a:chOff x="3162301" y="274265"/>
           <a:chExt cx="2198370" cy="459814"/>
         </a:xfrm>
@@ -1728,7 +1728,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -2038,6 +2038,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -2327,7 +2330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E99B084-70EE-4F78-B076-1D78244F5ECF}">
   <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2881,8 +2884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC6FCC6-3E31-4FC6-8F07-E8D73C1C42B1}">
   <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3067,14 +3070,14 @@
       <c r="I9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>62</v>
+      <c r="J9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -3090,15 +3093,13 @@
       <c r="I10" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>63</v>
-      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -3111,9 +3112,6 @@
       <c r="D11" t="str" cm="1">
         <f t="array" ref="D11">_fHM(C11)</f>
         <v>37° 38.6'</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">

--- a/SphericalTrig4Nav.xlsx
+++ b/SphericalTrig4Nav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AB7766-19B4-48A5-8172-FDDC9892F822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0F32F7-4391-40E3-A434-D9E0CBAFA676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Formula208" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId7"/>
+    <pivotCache cacheId="5" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="68">
   <si>
     <t>FROM:</t>
   </si>
@@ -291,13 +291,16 @@
   </si>
   <si>
     <t>111° 57'</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -384,6 +387,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Consolas"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -500,7 +509,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
@@ -519,6 +528,7 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comment" xfId="9" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -1348,15 +1358,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:colOff>500380</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>301257</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>72991</xdr:rowOff>
+      <xdr:colOff>217437</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95851</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1379,8 +1389,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="581660" y="3533140"/>
-          <a:ext cx="11022597" cy="4299551"/>
+          <a:off x="500380" y="6122670"/>
+          <a:ext cx="11009897" cy="4366861"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1425,6 +1435,50 @@
         <a:xfrm>
           <a:off x="5003800" y="2476500"/>
           <a:ext cx="7478169" cy="1101242"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>3289</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>71236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C49DA531-0ABC-567C-CE6A-29865B3945B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2598420" y="8938260"/>
+          <a:ext cx="9916909" cy="5382376"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1728,7 +1782,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -2017,7 +2071,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="1188" row="8">
+  <wetp:taskpane dockstate="right" visibility="0" width="841" row="8">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="974" row="9">
@@ -2330,7 +2384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E99B084-70EE-4F78-B076-1D78244F5ECF}">
   <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2593,7 +2647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916FFC01-0787-4116-93FD-519DFE4BC403}">
   <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2882,10 +2936,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC6FCC6-3E31-4FC6-8F07-E8D73C1C42B1}">
-  <dimension ref="B2:M12"/>
+  <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2948,7 +3004,7 @@
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="13">
         <v>15</v>
       </c>
       <c r="F5">
@@ -2969,7 +3025,7 @@
       <c r="K5">
         <v>49</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="14">
         <v>-1</v>
       </c>
     </row>
@@ -2977,7 +3033,7 @@
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="13">
         <v>-26.378333333333334</v>
       </c>
       <c r="F6">
@@ -3001,7 +3057,7 @@
         <f>74+16/60</f>
         <v>74.266666666666666</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="14">
         <v>21.156666666666666</v>
       </c>
     </row>
@@ -3009,7 +3065,7 @@
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="13">
         <v>33</v>
       </c>
       <c r="F7">
@@ -3030,7 +3086,7 @@
       <c r="K7">
         <v>347</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="14">
         <v>284</v>
       </c>
     </row>
@@ -3053,7 +3109,7 @@
       <c r="K8" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="14" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3119,20 +3175,23 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <f>_xlfn.LET(
-_xlpm.d,PI()/180*_d,
-_xlpm.L,PI()/180*_L,
-_xlpm.t,PI()/180*_t,
-_xlpm.s,SIN(_xlpm.d),
-_xlpm.c,COS(_xlpm.d)*COS(_xlpm.t),
-_xlpm.x,(_xlpm.s*COS(_xlpm.L)-_xlpm.c*SIN(_xlpm.L))/COS(C11*PI()/180),
-_xlpm.a,DEGREES(ACOS(_xlpm.x)),
-_xlpm.a)</f>
-        <v>141.9597818055056</v>
+        <f>_xlfn.LET(_xlpm.d, PI() / 180 * _d, _xlpm.L, PI() / 180 * _L, _xlpm.t, PI() / 180 * _t, _xlpm.s, SIN(_xlpm.d), _xlpm.c, COS(_xlpm.d) * COS(_xlpm.t), _xlpm.res, ASIN(SIN(_xlpm.L) * SIN(_xlpm.d) + COS(_xlpm.L) * COS(_xlpm.d) * COS(_xlpm.t)), _xlpm.x, DEGREES(ACOS((_xlpm.s * COS(_xlpm.L) - _xlpm.c * SIN(_xlpm.L)) / COS(_xlpm.res))), _xlpm.a, IF(SIGN(_xlpm.d) &lt;&gt; SIGN(_xlpm.L), 180 - _xlpm.x, _xlpm.x), _xlpm.a)</f>
+        <v>38.0402181944944</v>
       </c>
       <c r="D12" t="str" cm="1">
         <f t="array" ref="D12">_fHM(ABS(C12))</f>
-        <v>141° 57.6'</v>
+        <v>38° 2.4'</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="b">
+        <f>SIGN(_L)&lt;&gt;SIGN(_d)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SphericalTrig4Nav.xlsx
+++ b/SphericalTrig4Nav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0F32F7-4391-40E3-A434-D9E0CBAFA676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC439DD1-933D-479F-9898-CE815EF9D47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-20565" yWindow="1485" windowWidth="23235" windowHeight="11235" firstSheet="2" activeTab="3" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Formula208" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -851,7 +851,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1" y="0"/>
-          <a:ext cx="2200272" cy="484632"/>
+          <a:ext cx="2198367" cy="492252"/>
           <a:chOff x="3162303" y="274265"/>
           <a:chExt cx="2198368" cy="489383"/>
         </a:xfrm>
@@ -1357,16 +1357,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>500380</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>387985</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>217437</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>95851</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>93612</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>72991</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1389,8 +1389,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="500380" y="6122670"/>
-          <a:ext cx="11009897" cy="4366861"/>
+          <a:off x="1607185" y="5730240"/>
+          <a:ext cx="10990847" cy="4458301"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1454,7 +1454,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>3289</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>71236</xdr:rowOff>
+      <xdr:rowOff>55996</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1562,8 +1562,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3166111" y="262835"/>
-          <a:ext cx="2200275" cy="455350"/>
+          <a:off x="3158491" y="270455"/>
+          <a:ext cx="2205990" cy="464875"/>
           <a:chOff x="3162301" y="274265"/>
           <a:chExt cx="2198370" cy="459814"/>
         </a:xfrm>
@@ -1782,7 +1782,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -2071,7 +2071,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="841" row="8">
+  <wetp:taskpane dockstate="right" visibility="0" width="662" row="8">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="974" row="9">
@@ -2938,10 +2938,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC6FCC6-3E31-4FC6-8F07-E8D73C1C42B1}">
   <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="F17" sqref="F17"/>
+      <selection pane="topRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3005,7 +3005,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="13">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="F5">
         <v>15</v>
@@ -3034,7 +3034,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="13">
-        <v>-26.378333333333334</v>
+        <v>21.156666666666666</v>
       </c>
       <c r="F6">
         <v>19.315000000000001</v>
@@ -3066,7 +3066,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="13">
-        <v>33</v>
+        <v>284</v>
       </c>
       <c r="F7">
         <v>65</v>
@@ -3163,24 +3163,44 @@
       </c>
       <c r="C11">
         <f>_xlfn.LET(_xlpm.L, PI() / 180 * _L, _xlpm.d, PI() / 180 * _d, _xlpm.t, PI() / 180 * _t, ASIN(SIN(_xlpm.L) * SIN(_xlpm.d) + COS(_xlpm.L) * COS(_xlpm.d) * COS(_xlpm.t)) * 180 / PI())</f>
-        <v>37.644050023822807</v>
+        <v>12.666886583405681</v>
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" ref="D11">_fHM(C11)</f>
-        <v>37° 38.6'</v>
+        <v>12° 40.0'</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C12">
-        <f>_xlfn.LET(_xlpm.d, PI() / 180 * _d, _xlpm.L, PI() / 180 * _L, _xlpm.t, PI() / 180 * _t, _xlpm.s, SIN(_xlpm.d), _xlpm.c, COS(_xlpm.d) * COS(_xlpm.t), _xlpm.res, ASIN(SIN(_xlpm.L) * SIN(_xlpm.d) + COS(_xlpm.L) * COS(_xlpm.d) * COS(_xlpm.t)), _xlpm.x, DEGREES(ACOS((_xlpm.s * COS(_xlpm.L) - _xlpm.c * SIN(_xlpm.L)) / COS(_xlpm.res))), _xlpm.a, IF(SIGN(_xlpm.d) &lt;&gt; SIGN(_xlpm.L), 180 - _xlpm.x, _xlpm.x), _xlpm.a)</f>
-        <v>38.0402181944944</v>
+      <c r="C12" cm="1">
+        <f t="array" ref="C12">_xlfn.LAMBDA(_xlpm.dec,_xlpm.Lat,_xlpm.LHA,
+_xlfn.LET(_xlpm.f, IF(SIGN(_xlpm.dec)&lt;&gt;SIGN(_xlpm.Lat),-1,1),
+    _xlpm.d, PI() / 180 * ABS(_xlpm.dec),
+    _xlpm.L, PI() / 180 * ABS(_xlpm.Lat) * _xlpm.f,
+    _xlpm.t, PI() / 180 * _xlpm.LHA,
+    _xlpm.s, SIN(_xlpm.d),
+    _xlpm.c, COS(_xlpm.d) * COS(_xlpm.t),
+    _xlpm.res, ASIN(SIN(_xlpm.L) * SIN(_xlpm.d) + COS(_xlpm.L) * COS(_xlpm.d) * COS(_xlpm.t)),
+    _xlpm.x, DEGREES(ACOS((_xlpm.s * COS(_xlpm.L) - _xlpm.c * SIN(_xlpm.L)) / COS(_xlpm.res))),
+    IF(_xlpm.f=-1,180-_xlpm.x,_xlpm.x)
+))(_d,_L,_t)</f>
+        <v>111.95647513034474</v>
       </c>
       <c r="D12" t="str" cm="1">
         <f t="array" ref="D12">_fHM(ABS(C12))</f>
-        <v>38° 2.4'</v>
+        <v>111° 57.4'</v>
+      </c>
+      <c r="K12">
+        <f>(L6-21)*60</f>
+        <v>9.3999999999999773</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f>21+9.4/60</f>
+        <v>21.156666666666666</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -3239,7 +3259,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>24-May-2025</v>
+        <v>26-May-2025</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -3535,7 +3555,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>24-May-2025</v>
+        <v>26-May-2025</v>
       </c>
       <c r="C3" s="2"/>
     </row>

--- a/SphericalTrig4Nav.xlsx
+++ b/SphericalTrig4Nav.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC439DD1-933D-479F-9898-CE815EF9D47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA67C46-FD27-4620-B9CD-B3969131893B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20565" yWindow="1485" windowWidth="23235" windowHeight="11235" firstSheet="2" activeTab="3" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-25410" yWindow="0" windowWidth="23235" windowHeight="15585" firstSheet="2" activeTab="4" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Formula208" sheetId="1" r:id="rId1"/>
     <sheet name="Formula229" sheetId="4" r:id="rId2"/>
     <sheet name="Formula229 (2)" sheetId="6" r:id="rId3"/>
     <sheet name="Formula229 (3)" sheetId="7" r:id="rId4"/>
-    <sheet name="Formats" sheetId="2" r:id="rId5"/>
-    <sheet name="Lists" sheetId="3" r:id="rId6"/>
+    <sheet name="vCorrection" sheetId="8" r:id="rId5"/>
+    <sheet name="Formats" sheetId="2" r:id="rId6"/>
+    <sheet name="Lists" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_Alt">Formula208!$D$23</definedName>
@@ -48,7 +49,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="68">
   <si>
     <t>FROM:</t>
   </si>
@@ -1494,6 +1495,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>16943</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>55637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B03231-F7A5-5C6E-77CB-C632E1303B5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="171450"/>
+          <a:ext cx="12203228" cy="2810267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -2938,7 +2988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC6FCC6-3E31-4FC6-8F07-E8D73C1C42B1}">
   <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="C4" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="G11" sqref="G11"/>
@@ -3222,6 +3272,68 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C74FBC-AF29-42D0-B973-6A56AE2E1348}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
+        <v>26-May-2025</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="24" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f>19+10/60</f>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="H24">
+        <f>G24/60</f>
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="I24">
+        <f>12.1*H24</f>
+        <v>3.865277777777778</v>
+      </c>
+    </row>
+    <row r="25" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f>H24*-8.9</f>
+        <v>-2.8430555555555559</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912E8867-A2D1-43A4-9ACC-7AB2760F7CD8}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -3520,7 +3632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E13436D-CE0C-4639-B951-C1B98556791F}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>

--- a/SphericalTrig4Nav.xlsx
+++ b/SphericalTrig4Nav.xlsx
@@ -1,55 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA67C46-FD27-4620-B9CD-B3969131893B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DAAA49-0B6F-420D-9566-23466086243E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25410" yWindow="0" windowWidth="23235" windowHeight="15585" firstSheet="2" activeTab="4" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Formula208" sheetId="1" r:id="rId1"/>
     <sheet name="Formula229" sheetId="4" r:id="rId2"/>
     <sheet name="Formula229 (2)" sheetId="6" r:id="rId3"/>
-    <sheet name="Formula229 (3)" sheetId="7" r:id="rId4"/>
-    <sheet name="vCorrection" sheetId="8" r:id="rId5"/>
-    <sheet name="Formats" sheetId="2" r:id="rId6"/>
-    <sheet name="Lists" sheetId="3" r:id="rId7"/>
+    <sheet name="Working" sheetId="7" r:id="rId4"/>
+    <sheet name="NumMethod" sheetId="9" r:id="rId5"/>
+    <sheet name="vCorrection" sheetId="8" r:id="rId6"/>
+    <sheet name="Formats" sheetId="2" r:id="rId7"/>
+    <sheet name="Lists" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_Alt">Formula208!$D$23</definedName>
     <definedName name="_d" localSheetId="1">Formula229!$C$6</definedName>
     <definedName name="_d" localSheetId="2">'Formula229 (2)'!$C$6</definedName>
-    <definedName name="_d" localSheetId="3">'Formula229 (3)'!$C$6</definedName>
+    <definedName name="_d" localSheetId="4">NumMethod!$C$6</definedName>
+    <definedName name="_d" localSheetId="3">Working!$C$6</definedName>
     <definedName name="_d">Formula208!$D$8</definedName>
     <definedName name="_fHM">_xlfn.LAMBDA(_xlpm.a, INT(_xlpm.a) &amp; "° " &amp; FIXED(MOD(_xlpm.a, 1) * 60, 1) &amp; "'")</definedName>
     <definedName name="_h">Formula208!$D$11</definedName>
     <definedName name="_HC" comment="Computed altitude_x000a_" localSheetId="1">Formula229!$D$11</definedName>
     <definedName name="_HC" comment="Computed altitude_x000a_" localSheetId="2">'Formula229 (2)'!$D$11</definedName>
-    <definedName name="_HC" comment="Computed altitude_x000a_" localSheetId="3">'Formula229 (3)'!$D$11</definedName>
+    <definedName name="_HC" comment="Computed altitude_x000a_" localSheetId="4">NumMethod!$D$11</definedName>
+    <definedName name="_HC" comment="Computed altitude_x000a_" localSheetId="3">Working!$D$11</definedName>
     <definedName name="_L" localSheetId="1">Formula229!$C$5</definedName>
     <definedName name="_L" localSheetId="2">'Formula229 (2)'!$C$5</definedName>
-    <definedName name="_L" localSheetId="3">'Formula229 (3)'!$C$5</definedName>
+    <definedName name="_L" localSheetId="4">NumMethod!$C$5</definedName>
+    <definedName name="_L" localSheetId="3">Working!$C$5</definedName>
     <definedName name="_L">Formula208!$D$7</definedName>
     <definedName name="_PX">Formula208!$D$20</definedName>
     <definedName name="_PZ">Formula208!$D$21</definedName>
     <definedName name="_t" localSheetId="1">Formula229!$C$7</definedName>
     <definedName name="_t" localSheetId="2">'Formula229 (2)'!$C$7</definedName>
-    <definedName name="_t" localSheetId="3">'Formula229 (3)'!$C$7</definedName>
+    <definedName name="_t" localSheetId="4">NumMethod!$C$7</definedName>
+    <definedName name="_t" localSheetId="3">Working!$C$7</definedName>
     <definedName name="_t">Formula208!$D$9</definedName>
     <definedName name="_Z">Formula208!$D$12</definedName>
     <definedName name="_ZPA">Formula208!$D$24</definedName>
     <definedName name="_ZX">Formula208!$D$22</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">NumMethod!$C$7</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">NumMethod!$C$11</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">12.66688658</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId8"/>
+    <pivotCache cacheId="2" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -91,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
   <si>
     <t>FROM:</t>
   </si>
@@ -295,6 +327,21 @@
   </si>
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>LHA</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>Body Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured </t>
   </si>
 </sst>
 </file>
@@ -852,7 +899,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1" y="0"/>
-          <a:ext cx="2198367" cy="492252"/>
+          <a:ext cx="2200272" cy="484632"/>
           <a:chOff x="3162303" y="274265"/>
           <a:chExt cx="2198368" cy="489383"/>
         </a:xfrm>
@@ -1495,6 +1542,187 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>34554</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{110D2269-2A1D-4FA7-B3BB-3BAEE0F3A4BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11292840" y="335280"/>
+          <a:ext cx="11007354" cy="3635240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>387985</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>360312</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>72991</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E179798C-7800-46F6-A07C-D020C1713803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1607185" y="5604510"/>
+          <a:ext cx="10998467" cy="4359241"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>569369</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>110642</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A50AEEE8-8A74-4BE5-881A-7E8A875345EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4998720" y="2514600"/>
+          <a:ext cx="7473089" cy="1116482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>269989</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>55996</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60BC7C89-CD98-427E-91D1-A0E554C4472C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2598420" y="8938260"/>
+          <a:ext cx="9916909" cy="5367136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1540,7 +1768,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1612,8 +1840,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3158491" y="270455"/>
-          <a:ext cx="2205990" cy="464875"/>
+          <a:off x="3166111" y="262835"/>
+          <a:ext cx="2200275" cy="455350"/>
           <a:chOff x="3162301" y="274265"/>
           <a:chExt cx="2198370" cy="459814"/>
         </a:xfrm>
@@ -2697,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916FFC01-0787-4116-93FD-519DFE4BC403}">
   <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2988,10 +3216,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC6FCC6-3E31-4FC6-8F07-E8D73C1C42B1}">
   <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="G11" sqref="G11"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3057,6 +3285,9 @@
       <c r="C5" s="13">
         <v>-1</v>
       </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
       <c r="F5">
         <v>15</v>
       </c>
@@ -3086,6 +3317,9 @@
       <c r="C6" s="13">
         <v>21.156666666666666</v>
       </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
       <c r="F6">
         <v>19.315000000000001</v>
       </c>
@@ -3117,6 +3351,9 @@
       </c>
       <c r="C7" s="13">
         <v>284</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
       </c>
       <c r="F7">
         <v>65</v>
@@ -3272,10 +3509,310 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14A46DE-C8B5-46AB-B5C3-3D9A24AAEFAD}">
+  <dimension ref="B2:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="D11" sqref="D11:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="13">
+        <v>-1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>49</v>
+      </c>
+      <c r="J5">
+        <v>49</v>
+      </c>
+      <c r="K5">
+        <v>49</v>
+      </c>
+      <c r="L5" s="14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="13">
+        <v>21.156666666666666</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6">
+        <v>19.315000000000001</v>
+      </c>
+      <c r="G6">
+        <v>-26.378333333333334</v>
+      </c>
+      <c r="H6">
+        <v>12.581666666666667</v>
+      </c>
+      <c r="I6">
+        <f>12+6/60</f>
+        <v>12.1</v>
+      </c>
+      <c r="J6">
+        <f>45+11/60</f>
+        <v>45.18333333333333</v>
+      </c>
+      <c r="K6">
+        <f>74+16/60</f>
+        <v>74.266666666666666</v>
+      </c>
+      <c r="L6" s="14">
+        <v>21.156666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="13">
+        <v>284.00000049884716</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7">
+        <v>65</v>
+      </c>
+      <c r="G7">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <v>58</v>
+      </c>
+      <c r="J7">
+        <v>259</v>
+      </c>
+      <c r="K7">
+        <v>347</v>
+      </c>
+      <c r="L7" s="14">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <f>_xlfn.LET(_xlpm.L, PI() / 180 * _L, _xlpm.d, PI() / 180 * _d, _xlpm.t, PI() / 180 * _t, ASIN(SIN(_xlpm.L) * SIN(_xlpm.d) + COS(_xlpm.L) * COS(_xlpm.d) * COS(_xlpm.t)) * 180 / PI())</f>
+        <v>12.666887046000065</v>
+      </c>
+      <c r="D11" t="str" cm="1">
+        <f t="array" ref="D11">_fHM(C11)</f>
+        <v>12° 40.0'</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="9">
+        <v>12.666886597987773</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" cm="1">
+        <f t="array" ref="C12">_xlfn.LAMBDA(_xlpm.dec,_xlpm.Lat,_xlpm.LHA,
+_xlfn.LET(_xlpm.f, IF(SIGN(_xlpm.dec)&lt;&gt;SIGN(_xlpm.Lat),-1,1),
+    _xlpm.d, PI() / 180 * ABS(_xlpm.dec),
+    _xlpm.L, PI() / 180 * ABS(_xlpm.Lat) * _xlpm.f,
+    _xlpm.t, PI() / 180 * _xlpm.LHA,
+    _xlpm.s, SIN(_xlpm.d),
+    _xlpm.c, COS(_xlpm.d) * COS(_xlpm.t),
+    _xlpm.res, ASIN(SIN(_xlpm.L) * SIN(_xlpm.d) + COS(_xlpm.L) * COS(_xlpm.d) * COS(_xlpm.t)),
+    _xlpm.x, DEGREES(ACOS((_xlpm.s * COS(_xlpm.L) - _xlpm.c * SIN(_xlpm.L)) / COS(_xlpm.res))),
+    IF(_xlpm.f=-1,180-_xlpm.x,_xlpm.x)
+))(_d,_L,_t)</f>
+        <v>111.95647518096528</v>
+      </c>
+      <c r="D12" t="str" cm="1">
+        <f t="array" ref="D12">_fHM(ABS(C12))</f>
+        <v>111° 57.4'</v>
+      </c>
+      <c r="K12">
+        <f>(L6-21)*60</f>
+        <v>9.3999999999999773</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f>21+9.4/60</f>
+        <v>21.156666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C74FBC-AF29-42D0-B973-6A56AE2E1348}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -3303,7 +3840,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>26-May-2025</v>
+        <v>04-Jun-2025</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -3333,7 +3870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912E8867-A2D1-43A4-9ACC-7AB2760F7CD8}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -3371,7 +3908,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>26-May-2025</v>
+        <v>04-Jun-2025</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -3632,7 +4169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E13436D-CE0C-4639-B951-C1B98556791F}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -3667,7 +4204,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>26-May-2025</v>
+        <v>04-Jun-2025</v>
       </c>
       <c r="C3" s="2"/>
     </row>

--- a/SphericalTrig4Nav.xlsx
+++ b/SphericalTrig4Nav.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DAAA49-0B6F-420D-9566-23466086243E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3811723E-D3C1-4EBC-9C18-6A4E93AACA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -338,17 +338,17 @@
     <t>dec</t>
   </si>
   <si>
-    <t>Body Data</t>
-  </si>
-  <si>
     <t xml:space="preserve">Measured </t>
+  </si>
+  <si>
+    <t>Celestial Body Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -443,6 +443,14 @@
       <sz val="10"/>
       <name val="Consolas"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -557,7 +565,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
@@ -577,6 +585,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comment" xfId="9" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -1716,6 +1725,102 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BCA63D-B396-52C8-DC4C-2924470E3C59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1478280" y="2644140"/>
+          <a:ext cx="4168140" cy="2834640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>I have been so focused on understanding the paper</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> algorithm that I have not looked at the deeply at the problem. The LOP of position approach is simply a graphical approach for solving two nonlinear equations.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Another approach is to use either goal seek or solver to find the LHA value gives the measured altitude of the celestial object. Once you have the LHA value that gives you the measured altitude, you can then compute the azimuth.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>LHA and azimuth allow me to plot my LOP. I need to understand LOP plotting better. It is time for some practice on a chart. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3515,7 +3620,7 @@
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="D11" sqref="D11:D12"/>
+      <selection pane="topRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3555,8 +3660,8 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>71</v>
+      <c r="C4" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -3650,7 +3755,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="13">
-        <v>284.00000049884716</v>
+        <v>283.99999974070147</v>
       </c>
       <c r="D7" t="s">
         <v>69</v>
@@ -3750,14 +3855,14 @@
       </c>
       <c r="C11">
         <f>_xlfn.LET(_xlpm.L, PI() / 180 * _L, _xlpm.d, PI() / 180 * _d, _xlpm.t, PI() / 180 * _t, ASIN(SIN(_xlpm.L) * SIN(_xlpm.d) + COS(_xlpm.L) * COS(_xlpm.d) * COS(_xlpm.t)) * 180 / PI())</f>
-        <v>12.666887046000065</v>
+        <v>12.666886342951196</v>
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" ref="D11">_fHM(C11)</f>
         <v>12° 40.0'</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="9">
         <v>12.666886597987773</v>
@@ -3779,7 +3884,7 @@
     _xlpm.x, DEGREES(ACOS((_xlpm.s * COS(_xlpm.L) - _xlpm.c * SIN(_xlpm.L)) / COS(_xlpm.res))),
     IF(_xlpm.f=-1,180-_xlpm.x,_xlpm.x)
 ))(_d,_L,_t)</f>
-        <v>111.95647518096528</v>
+        <v>111.95647510403241</v>
       </c>
       <c r="D12" t="str" cm="1">
         <f t="array" ref="D12">_fHM(ABS(C12))</f>
